--- a/addons/custom/forlife_stock/static/src/xlsx/update_sl_xuat.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/update_sl_xuat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74981ED-8AF6-4DCF-B4DE-05114BD72968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D0FC7D-7F0A-4CF3-B546-20C1F3A0A7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE509528-D565-40F9-86D0-A32FD3F02577}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Tên kho xuất</t>
   </si>
   <si>
-    <t>Mã phiếu</t>
-  </si>
-  <si>
     <t>PXB771075-012023</t>
   </si>
   <si>
@@ -60,29 +57,80 @@
     <t>Tên kho nhập</t>
   </si>
   <si>
-    <t>Line / Sản phẩm</t>
-  </si>
-  <si>
-    <t>Line / Số lượng xuất</t>
-  </si>
-  <si>
     <t>kho nhận</t>
   </si>
   <si>
     <t>kho xuất</t>
   </si>
   <si>
-    <t>Line / STT dòng</t>
-  </si>
-  <si>
     <t>1521_NPL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mã phiếu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / STT dòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line / Sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Số lượng xuất </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +148,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -487,7 +542,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,29 +556,29 @@
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -532,21 +587,21 @@
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -559,16 +614,16 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3">
         <v>10</v>
@@ -576,7 +631,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -589,16 +644,16 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" s="3">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3">
         <v>15</v>
@@ -634,5 +689,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/addons/custom/forlife_stock/static/src/xlsx/update_sl_xuat.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/update_sl_xuat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D0FC7D-7F0A-4CF3-B546-20C1F3A0A7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F848849-4888-4115-87CE-8F1EBC82D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE509528-D565-40F9-86D0-A32FD3F02577}"/>
   </bookViews>
@@ -82,7 +82,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / STT dòng </t>
+      <t xml:space="preserve">Chi tiết / STT dòng </t>
     </r>
     <r>
       <rPr>
@@ -97,7 +97,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Sản phẩm</t>
+      <t>Chi tiết / Sản phẩm</t>
     </r>
     <r>
       <rPr>
@@ -112,7 +112,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Số lượng xuất </t>
+      <t xml:space="preserve">Chi tiết / Số lượng xuất </t>
     </r>
     <r>
       <rPr>
@@ -542,7 +542,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,9 +556,9 @@
     <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
